--- a/doc/second sprint/Merged_All_Written_Cases_Group_45.xlsx
+++ b/doc/second sprint/Merged_All_Written_Cases_Group_45.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="337">
   <si>
     <t>Project Name</t>
   </si>
@@ -1480,9 +1480,6 @@
     <t>SC_TC_52</t>
   </si>
   <si>
-    <t>SC_TC_53</t>
-  </si>
-  <si>
     <t xml:space="preserve">As follows:
 - If I'm logged in, the welcome page displays a collection of recommended places for my user type. 
 - If I'm logged in as a student, a list of colleges, libraries and city information should be displayed 
@@ -1502,6 +1499,89 @@
   </si>
   <si>
     <t>Aiden Bird</t>
+  </si>
+  <si>
+    <t>Individual Item page should accessible via URIs like: http://localhost:8000/place/1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The test machine should be configured to run the project 
+2. JavaScript should be enabled on the browser      
+3. Modern browser should be used to use latest version of JavaScript                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run the project on the local instance of the Django server 
+2. Start any web browser of your choice 
+3. Visit the page on URI: http://localhost:8000/place/1/
+</t>
+  </si>
+  <si>
+    <t>A URI such as http://localhost:8000/place/1/
+The number should be a valid id of the place.</t>
+  </si>
+  <si>
+    <t>- Clicking on each item (place) will redirect me to an individual item page
+- A web page will display information about a selected place including google map of the place, the place name, contact numbers, email address, departments (if it is a college), and industry type (if it is an industry).</t>
+  </si>
+  <si>
+    <t>User should be navigated to the individual item page, which  should contain following components:
+1. Save place button
+2. Place information
+3. Google Map
+5. Weather animation</t>
+  </si>
+  <si>
+    <t>Search result paging will be displayed for search results more than 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run the project on the local instance of the Django server 
+2. Start any web browser of your choice 
+3. Visit the welcome page on URI: http://localhost:8000
+4. Log into a registered account
+5. Click the search button on the navigation bar
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- If the number of items in the search result exceeds a certain amount (15) there should be displayed a pagination that allows me to read through the results in multiple segments.
+- There will be buttons labelled "Prev" and "Next" which will appear next to the number so that I may click to go onto the next or previous segment of search results.</t>
+  </si>
+  <si>
+    <t>Users should be able to click on the pagination button and view different segments of the search result</t>
+  </si>
+  <si>
+    <t>Weather API</t>
+  </si>
+  <si>
+    <t>- Individual Item Page should request a remote weather API service using the coordinates of each place 
+- Individual Item Page should display an information about the current weather of the place.</t>
+  </si>
+  <si>
+    <t>Users should be able to view the real time weather information of the place every time they load the page</t>
+  </si>
+  <si>
+    <t>Integrated Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The test machine should be configured to run the project 
+2. JavaScript should be enabled on the browser      
+3. Modern browser should be used to use latest version of JavaScript       </t>
+  </si>
+  <si>
+    <t>1. Run the project on the local instance of the Django server 
+2. Start any web browser of your choice 
+3. Visit the page on URI: http://localhost:8000/place/1/</t>
+  </si>
+  <si>
+    <t>Users should be able to view the map of the place.</t>
+  </si>
+  <si>
+    <t>As follows:
+- Individual item page should make API call to the google API service.
+- Individual item page should display a google map that is zoomed in on the place
+- Users should be able to zoom in and out of the map.</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1676,12 +1756,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1750,9 +1843,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1765,11 +1855,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1783,6 +1870,12 @@
     <xf numFmtId="15" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1794,6 +1887,12 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2112,44 +2211,44 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="32">
         <v>43029</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="16" t="s">
@@ -2397,74 +2496,74 @@
       <c r="A18" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="33" t="s">
         <v>62</v>
       </c>
       <c r="H18" s="28"/>
     </row>
     <row r="19" spans="1:8" hidden="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" hidden="1">
       <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" hidden="1">
       <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" hidden="1">
       <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="29"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" ht="315" customHeight="1">
@@ -3021,6 +3120,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="B18:B23"/>
     <mergeCell ref="H18:H23"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -3028,12 +3133,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="G18:G23"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="B18:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3063,40 +3162,40 @@
       <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="29"/>
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="29"/>
       <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="33"/>
+      <c r="C3" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="31"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="32">
         <v>43029</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="29"/>
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:8" s="14" customFormat="1">
@@ -3104,8 +3203,8 @@
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="8"/>
       <c r="F5" s="15"/>
       <c r="G5" s="8"/>
@@ -3287,7 +3386,7 @@
     <col min="3" max="3" width="27.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="37" style="8" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" style="25" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="14"/>
@@ -3353,7 +3452,7 @@
       <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="17" t="s">
@@ -3379,8 +3478,8 @@
       <c r="E8" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>316</v>
+      <c r="F8" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>245</v>
@@ -3403,7 +3502,7 @@
       <c r="E9" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>250</v>
       </c>
       <c r="G9" s="22" t="s">
@@ -3427,7 +3526,7 @@
       <c r="E10" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>256</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -3451,7 +3550,7 @@
       <c r="E11" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>261</v>
       </c>
       <c r="G11" s="18" t="s">
@@ -3475,8 +3574,8 @@
       <c r="E12" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>317</v>
+      <c r="F12" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>266</v>
@@ -3499,7 +3598,7 @@
       <c r="E13" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>270</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -3523,7 +3622,7 @@
       <c r="E14" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>275</v>
       </c>
       <c r="G14" s="18" t="s">
@@ -3547,7 +3646,7 @@
       <c r="E15" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>280</v>
       </c>
       <c r="G15" s="22" t="s">
@@ -3571,7 +3670,7 @@
       <c r="E16" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>286</v>
       </c>
       <c r="G16" s="22" t="s">
@@ -3595,7 +3694,7 @@
       <c r="E17" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>291</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -3737,22 +3836,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
@@ -3815,185 +3914,156 @@
       <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:8" ht="180">
+      <c r="A8" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" ht="165">
+      <c r="A9" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
+      <c r="B9" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" ht="150">
+      <c r="A10" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="150">
+      <c r="A11" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/doc/second sprint/Merged_All_Written_Cases_Group_45.xlsx
+++ b/doc/second sprint/Merged_All_Written_Cases_Group_45.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sandra's Cases" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="338">
   <si>
     <t>Project Name</t>
   </si>
@@ -967,12 +972,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">User should be navigated to the SmartCity user profile page. From this page:                                   
-- The page displays a form prefilled with their personal information (username, first name, last name, email, address, phone number, postcode, account type) 
-- The form is set as read only. 
-- The page displays a "Edit Account" button. </t>
-  </si>
-  <si>
     <t>This page is only accessible when a user is logged in</t>
   </si>
   <si>
@@ -998,13 +997,6 @@
 </t>
   </si>
   <si>
-    <t>From the user profile page:                                   
-- The page displays a "Edit"  button. 
-- Clicking the "Edit" button will enable the form to be edited. 
-- A "submit" button is present once the user is on the editing page
-- When user presses submit, the page reloads the profile page with the new changes and saves changes made to the database</t>
-  </si>
-  <si>
     <t>User can only access this information when logged in</t>
   </si>
   <si>
@@ -1031,12 +1023,6 @@
     <t>SC_TC_31</t>
   </si>
   <si>
-    <t>Consistent theme if found on website including: 
-- All pages have the same base font 
-- All pages have the same base colour scheme 
-- All pages other have a top banner picture under the navigation top bar</t>
-  </si>
-  <si>
     <t>Remove User Account</t>
   </si>
   <si>
@@ -1049,12 +1035,6 @@
 User is unable to use the SmartCity service with their old login information</t>
   </si>
   <si>
-    <t xml:space="preserve">When pressing the delete button on the user profile editting page, the user account is deleted from the database and the user is re-directed to the welcome page for SmartCity. The user will also be unable to login using their old username and password.
-On the edit user profile page:
-- A button labelled "Delete Account" will be displayed on the users individual account information page. 
-- Once the deleted button is pressed, the users stored information such as their name, email, and password are to be removed from the web systems SQL database. If they user provided any other information such as, but not limited to, their address or phone number, these will also be removed. </t>
-  </si>
-  <si>
     <t>This page is only accessible when a user is logged in
 Once deleted from the database the user will be unable to login using their old details and will need to make a new account to use the SmartCity service</t>
   </si>
@@ -1075,16 +1055,6 @@
 When clicking on saved places link from the navigation bar a list of all their saved places is displayed and are able to be clicked-through</t>
   </si>
   <si>
-    <t xml:space="preserve">The following occurs:
-- Individual item page displays a button labelled "Save Page" 
-- When "Save Page" is clicked and saves the page successfully, the button changes label to "Saved" 
-- The item ID will be saved to the user's database. 
-- The navigation menu bar displays a link labelled "Saved Places" 
-- Clicking on the link will redirect me to the saved places page which displays a collection of my saved places. 
-- Each saved place will be linked to its individual item page. 
-- Clicking on each saved place will redirect me to the individual item page. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This function is only accessible when a user is logged in
 </t>
   </si>
@@ -1148,9 +1118,6 @@
   </si>
   <si>
     <t>1. At the top of every page after the user is logged in, is the navigation bar which they can use to go 'home', go to 'user: bigbird79; and edit account settings etc. also access 'saved places' on the navbar, as well as 'logout'</t>
-  </si>
-  <si>
-    <t>1. The navigation bar should be anchored to the page at the top 2. It should allow the user the links to Home, Account, Saved Place, Logout, and search bar</t>
   </si>
   <si>
     <t>User can use this navbar to navigate the specified links attached the the navbar.</t>
@@ -1209,10 +1176,6 @@
 Role: Tourist</t>
   </si>
   <si>
-    <t xml:space="preserve">- If I'm logged in, the welcome page displays a collection of recommended places for my user type. 
-- If I'm logged in as a tourist, a list of hotels, restaurants and city information should be displayed. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Users should be able to click on the different reccomendation to display a correspinding list of places
 </t>
   </si>
@@ -1294,13 +1257,6 @@
     <t>1. Navigate to the search bar on the anchored menu bar at the top pf each page
 2. Input a series of search query that results are expected for
 3. Select an options for sorting search results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- The search result page displays a radio button menu with the following sorting options: 
-*Alphabetical 
-*Date 
-- Choosing "alphabetical" will sort the result alphabetically 
-- Choosing date will sort the result such that newest will be displayed first </t>
   </si>
   <si>
     <t xml:space="preserve">Users can write a review and give a rating out of 5 to a place via the Individual item page
@@ -1406,10 +1362,6 @@
 2. View the reviews under at the bottom of the page under the section labelled "user reviews"</t>
   </si>
   <si>
-    <t xml:space="preserve">- When a user is on an individual destination/place web page, they will be able to see a rating (out of 5) and typed review which other users have provided for the destination/place based on their experiences there. 
-- If no reviews have been provided by users, a text box stating “No reviews provided” will be displayed. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Users can view a list of all reviews corresponding to the place
 </t>
   </si>
@@ -1478,24 +1430,6 @@
   </si>
   <si>
     <t>SC_TC_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As follows:
-- If I'm logged in, the welcome page displays a collection of recommended places for my user type. 
-- If I'm logged in as a student, a list of colleges, libraries and city information should be displayed 
-- If I'm logged in as a businessman, a list of hotels, industries and city information should be displayed 
-- If I'm logged in as a tourist, a list of hotels, restaurants and city information should be displayed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- The navigation bar anchored to the top of webpages will display a search bar and a search button on every page to allow me to look for places by typing keywords. 
-- Clicking the "search" button will redirect me to the search result page showing relevant results.
-- The keyword entered on the search bar will be compared with the name of the places in the database 
-- A list of places with the name containing the keyword will be displayed after the user has pressed search. 
-- Search results will display the following: 
-Name of destination 
-Address of destination 
-- The search results will be displayed in order of date added to the database. 
-- Clicking on the result text will take the user to the individual item's page via a click through link. </t>
   </si>
   <si>
     <t>Aiden Bird</t>
@@ -1517,10 +1451,6 @@
   <si>
     <t>A URI such as http://localhost:8000/place/1/
 The number should be a valid id of the place.</t>
-  </si>
-  <si>
-    <t>- Clicking on each item (place) will redirect me to an individual item page
-- A web page will display information about a selected place including google map of the place, the place name, contact numbers, email address, departments (if it is a college), and industry type (if it is an industry).</t>
   </si>
   <si>
     <t>User should be navigated to the individual item page, which  should contain following components:
@@ -1544,19 +1474,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">
-- If the number of items in the search result exceeds a certain amount (15) there should be displayed a pagination that allows me to read through the results in multiple segments.
-- There will be buttons labelled "Prev" and "Next" which will appear next to the number so that I may click to go onto the next or previous segment of search results.</t>
-  </si>
-  <si>
     <t>Users should be able to click on the pagination button and view different segments of the search result</t>
   </si>
   <si>
     <t>Weather API</t>
-  </si>
-  <si>
-    <t>- Individual Item Page should request a remote weather API service using the coordinates of each place 
-- Individual Item Page should display an information about the current weather of the place.</t>
   </si>
   <si>
     <t>Users should be able to view the real time weather information of the place every time they load the page</t>
@@ -1578,17 +1499,106 @@
     <t>Users should be able to view the map of the place.</t>
   </si>
   <si>
-    <t>As follows:
+    <t>Select tabs at the bottom of the screen to view the written tests by different members</t>
+  </si>
+  <si>
+    <t>User should be navigated to the SmartCity user profile page. From this page:                                   
+- The page displays all information about my user profile.
+- The account information page displays a button labelled "Edit Account".
+- Clicking the "Edit Account" button will redirect me to a page for editing my account information.</t>
+  </si>
+  <si>
+    <t>From the user profile page:                                   
+- The edit account page displays a form pre-filled with my personal information; including the details I registered with and additional information that I added later.
+- Clicking on the "Submit" button returns me to the account information page so that I can view the changes I have made.</t>
+  </si>
+  <si>
+    <t>Consistent theme if found on website including: 
+- All pages have the same base font
+- All pages have the same base colour scheme
+- All pages have a banner image at the top of the web page</t>
+  </si>
+  <si>
+    <t>When pressing the delete button on the user profile editting page, the user account is deleted from the database and the user is re-directed to the welcome page for SmartCity. The user will also be unable to login using their old username and password.
+On the edit user profile page:
+- A button labelled "Delete" will be displayed on the users individual account information page when the user clicks the "edit" button.
+- When the delete button is pressed, the page will show confirmation page displaying "Account deleted"
+- The information about the user in the database such as their name, email, and password will be removed.
+- The user will be redirected to the welcome page in 3 seconds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following occurs:
+- Individual item page displays a button labelled "Save Page"
+- When "Save Page" is clicked and saves the page successfully, the button changes label to "Saved"
+- The item ID will be saved to the user's database.
+- The navigation menu bar displays a link labelled "Saved Places"
+- Clicking on the link will redirect me to the saved places page which displays a collection of my saved places. 
+- Each saved place will be linked to its individual item page.
+- Clicking on each saved place will redirect me to the individual item page. </t>
+  </si>
+  <si>
+    <t>1. The navigation bar should be anchored to the page at the top 2. It should allow the user the links to Home, Account, Saved Place, Logout, Contact Us and search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As follows:
+- If I'm logged in, the welcome page displays a collection of recommended places for my user type. 
+- If I'm logged in as a student, a list of colleges, libraries and city information should be displayed
+- If I'm logged in as a businessman, a list of hotels, industries and city information should be displayed 
+- If I'm logged in as a tourist, a list of hotels and city information should be displayed. </t>
+  </si>
+  <si>
+    <t>-If I'm logged in, the welcome page displays a collection of recommended places for my user type. 
+- If I'm logged in as a tourist, a list of hotels, restaurants and city information should be displayed.</t>
+  </si>
+  <si>
+    <t>- A navigation menu will be anchored at the top of every webpage along with the search bar.
+- When I'm logged in, the navigation bar will have following links:
+ 1. "Home" link to redirect me to the welcome page when I click on the sites logo.
+ 2. "Admin Settings" link to redirect me to the administration control panel when I am logged in as an admin.
+ 3. "Account Settings" link to redirect me to my account information page
+ 4. "Saved Pages" link to redirect me to the save pages page.
+        5. "Contact Us" link to redirect me to the contact details page.
+ 6. "Log Out" link to log me out of the website. 
+- When I'm logged out, the navigation bar will only show the logo that will redirect the user to the welcome page
+- When I'm logged in, the navigation bar will contain a search form for me to search places matching my query.</t>
+  </si>
+  <si>
+    <t>- The search result page displays a drop-down menu with the following sorting options:
+ *Alphabetical
+ *Date
+- Choosing "alphabetical" will sort the result alphabetically 
+- Choosing date will sort the result such that the places added most recently to the database will be displayed first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Individual destination/place web page should show a list of reviews.
+- Each review should show the username, comment, and rating.
+- If no reviews have been provided by users, the reviews list will be empty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Clicking on each item (place) will redirect me to an individual item page
+- A web page will display information about a selected place including google map of the place, the place name, contact numbers, email address, departments (if it is a college), and industry type (if it is an industry) </t>
+  </si>
+  <si>
+    <t>- If the number of items in the search result exceeds a certain amount (10) there should be displayed a pagination that allows me to read through the results in multiple segments.
+- There will be buttons labelled "Prev" and "Next" which will appear next to the number so that I may click to go onto the next or previous segment of search results while seeing which page I am currently on.</t>
+  </si>
+  <si>
+    <t>- Individual Item Page should request a remote weather API service using the coordinates of each place 
+- Individual Item Page should display the information about the current weather of the place via an image/icon as well as text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As follows:
 - Individual item page should make API call to the google API service.
-- Individual item page should display a google map that is zoomed in on the place
-- Users should be able to zoom in and out of the map.</t>
+- Individual item page should display a google map that is zoomed in on the place with a marker of where the place is on the map
+- Users should be able to zoom in and out of the map. 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1640,8 +1650,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1687,6 +1704,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1770,11 +1792,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1843,9 +1866,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1855,8 +1875,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1870,12 +1902,6 @@
     <xf numFmtId="15" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1888,19 +1914,31 @@
     <xf numFmtId="15" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1947,7 +1985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1979,9 +2017,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2013,6 +2069,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2188,14 +2262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D6"/>
+    <sheetView topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="8" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="8" customWidth="1"/>
@@ -2207,50 +2281,54 @@
     <col min="8" max="8" width="14.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="D2" s="32"/>
+      <c r="F2" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="35">
         <v>43029</v>
       </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C6" s="35"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="368.25" customHeight="1">
+    <row r="9" spans="1:8" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>139</v>
       </c>
@@ -2300,7 +2378,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="240">
+    <row r="10" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -2324,7 +2402,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="300">
+    <row r="11" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>141</v>
       </c>
@@ -2348,7 +2426,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="375">
+    <row r="12" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>142</v>
       </c>
@@ -2372,7 +2450,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="225">
+    <row r="13" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>147</v>
       </c>
@@ -2396,7 +2474,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="375">
+    <row r="14" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>148</v>
       </c>
@@ -2420,7 +2498,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="225">
+    <row r="15" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>149</v>
       </c>
@@ -2444,7 +2522,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="285">
+    <row r="16" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>150</v>
       </c>
@@ -2468,7 +2546,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="375">
+    <row r="17" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>151</v>
       </c>
@@ -2492,81 +2570,81 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="216" customHeight="1">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:8" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" hidden="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8" hidden="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" hidden="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" hidden="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" ht="315" customHeight="1">
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" ht="315" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>157</v>
       </c>
@@ -2590,7 +2668,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="375" customHeight="1">
+    <row r="25" spans="1:8" ht="375" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>161</v>
       </c>
@@ -2614,7 +2692,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="225">
+    <row r="26" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>162</v>
       </c>
@@ -2638,7 +2716,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="285">
+    <row r="27" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>163</v>
       </c>
@@ -2662,7 +2740,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="375">
+    <row r="28" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>164</v>
       </c>
@@ -2686,7 +2764,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="285">
+    <row r="29" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>165</v>
       </c>
@@ -2710,7 +2788,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="270">
+    <row r="30" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>166</v>
       </c>
@@ -2734,7 +2812,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="375">
+    <row r="31" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>167</v>
       </c>
@@ -2758,7 +2836,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="315">
+    <row r="32" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>168</v>
       </c>
@@ -2782,7 +2860,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="285">
+    <row r="33" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>169</v>
       </c>
@@ -2806,7 +2884,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="405">
+    <row r="34" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>170</v>
       </c>
@@ -2830,7 +2908,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="300">
+    <row r="35" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>171</v>
       </c>
@@ -2854,7 +2932,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="315">
+    <row r="36" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>172</v>
       </c>
@@ -2878,7 +2956,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="345">
+    <row r="37" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>173</v>
       </c>
@@ -2902,7 +2980,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="366.75" customHeight="1">
+    <row r="38" spans="1:8" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>174</v>
       </c>
@@ -2926,7 +3004,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="375">
+    <row r="39" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>175</v>
       </c>
@@ -2950,7 +3028,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="375">
+    <row r="40" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>176</v>
       </c>
@@ -2974,7 +3052,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="375">
+    <row r="41" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>183</v>
       </c>
@@ -2998,9 +3076,9 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="210">
+    <row r="42" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>184</v>
@@ -3015,117 +3093,111 @@
         <v>187</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="180">
+    <row r="43" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" ht="90">
-      <c r="A44" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8" ht="240">
-      <c r="A45" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" ht="225">
-      <c r="A46" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="B18:B23"/>
     <mergeCell ref="H18:H23"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -3133,20 +3205,26 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="G18:G23"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="B18:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="8" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="8" customWidth="1"/>
@@ -3158,62 +3236,65 @@
     <col min="8" max="8" width="15.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="D1" s="32"/>
+      <c r="F1" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="32"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="D3" s="31"/>
+      <c r="C3" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="34"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="35">
         <v>43029</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="32"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1">
+    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="8"/>
       <c r="F5" s="15"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -3239,123 +3320,123 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="165">
+    <row r="8" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="E9" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="120">
-      <c r="A9" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="135">
-      <c r="A10" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="G10" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="C11" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E11" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="C12" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="135">
-      <c r="A11" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="E12" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="120">
-      <c r="A12" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>240</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -3372,71 +3453,75 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="37" style="8" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" style="24" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="D1" s="36"/>
+      <c r="F1" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C3" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <v>43029</v>
       </c>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickTop="1"/>
-    <row r="7" spans="1:8">
+      <c r="C5" s="39"/>
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -3452,7 +3537,7 @@
       <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="17" t="s">
@@ -3462,247 +3547,247 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="144" customHeight="1">
+    <row r="8" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="105">
-      <c r="A9" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="105">
-      <c r="A10" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="75">
-      <c r="A11" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B17" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="225">
-      <c r="A12" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="105">
-      <c r="A13" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="162" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="150">
-      <c r="A15" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" ht="105">
-      <c r="A16" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="F17" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" ht="135">
-      <c r="A17" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>292</v>
-      </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -3710,7 +3795,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -3718,7 +3803,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3726,7 +3811,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -3734,7 +3819,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3742,7 +3827,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -3750,7 +3835,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -3758,7 +3843,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -3766,7 +3851,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -3774,7 +3859,7 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -3782,7 +3867,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -3790,7 +3875,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -3798,7 +3883,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -3806,7 +3891,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -3814,7 +3899,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -3831,74 +3916,79 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="45.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="48.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="D1" s="36"/>
+      <c r="F1" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C3" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <v>43029</v>
       </c>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickTop="1"/>
-    <row r="7" spans="1:8">
+      <c r="C5" s="39"/>
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -3914,155 +4004,155 @@
       <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="180">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E11" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" ht="165">
-      <c r="A9" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" ht="150">
-      <c r="A10" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" ht="150">
-      <c r="A11" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="6:6">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F26" s="12"/>
     </row>
   </sheetData>

--- a/doc/second sprint/Merged_All_Written_Cases_Group_45.xlsx
+++ b/doc/second sprint/Merged_All_Written_Cases_Group_45.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sandra's Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="339">
   <si>
     <t>Project Name</t>
   </si>
@@ -1073,9 +1073,6 @@
     <t>Valid Username: bigbird79, Email: bigbird@email.com, First Name: Big, Last Name: Bird, Password: IFB299rocks, Address: 1 Lanark St Kenmore, Phone: 0409090956, Postcode: 4069, Account Type: Student</t>
   </si>
   <si>
-    <t>When the user is on the home page,  he or she is presented with a 'Sign Up' Form. The form should contain textboxes for Username, Email, First Name, Last Name, Password, Address, Phone, Postcode and a drop-down multiple choice for Account Type. All these fields are mandatory, hence user  must provide all these informations. Once the user submits the form with all the mandatory fields filled up, a new account is created with the provided creadential and the account details are stored in the MySQL database.  AND  they will be faced with a message "You have successfully registered".</t>
-  </si>
-  <si>
     <t>User can now Login and use all the available services of the Smart City site using the newly created account.</t>
   </si>
   <si>
@@ -1508,11 +1505,6 @@
 - Clicking the "Edit Account" button will redirect me to a page for editing my account information.</t>
   </si>
   <si>
-    <t>From the user profile page:                                   
-- The edit account page displays a form pre-filled with my personal information; including the details I registered with and additional information that I added later.
-- Clicking on the "Submit" button returns me to the account information page so that I can view the changes I have made.</t>
-  </si>
-  <si>
     <t>Consistent theme if found on website including: 
 - All pages have the same base font
 - All pages have the same base colour scheme
@@ -1527,16 +1519,6 @@
 - The user will be redirected to the welcome page in 3 seconds.</t>
   </si>
   <si>
-    <t xml:space="preserve">The following occurs:
-- Individual item page displays a button labelled "Save Page"
-- When "Save Page" is clicked and saves the page successfully, the button changes label to "Saved"
-- The item ID will be saved to the user's database.
-- The navigation menu bar displays a link labelled "Saved Places"
-- Clicking on the link will redirect me to the saved places page which displays a collection of my saved places. 
-- Each saved place will be linked to its individual item page.
-- Clicking on each saved place will redirect me to the individual item page. </t>
-  </si>
-  <si>
     <t>1. The navigation bar should be anchored to the page at the top 2. It should allow the user the links to Home, Account, Saved Place, Logout, Contact Us and search bar</t>
   </si>
   <si>
@@ -1549,6 +1531,33 @@
   <si>
     <t>-If I'm logged in, the welcome page displays a collection of recommended places for my user type. 
 - If I'm logged in as a tourist, a list of hotels, restaurants and city information should be displayed.</t>
+  </si>
+  <si>
+    <t>- The search result page displays a drop-down menu with the following sorting options:
+ *Alphabetical
+ *Date
+- Choosing "alphabetical" will sort the result alphabetically 
+- Choosing date will sort the result such that the places added most recently to the database will be displayed first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Individual destination/place web page should show a list of reviews.
+- Each review should show the username, comment, and rating.
+- If no reviews have been provided by users, the reviews list will be empty. </t>
+  </si>
+  <si>
+    <t>- If the number of items in the search result exceeds a certain amount (10) there should be displayed a pagination that allows me to read through the results in multiple segments.
+- There will be buttons labelled "Prev" and "Next" which will appear next to the number so that I may click to go onto the next or previous segment of search results while seeing which page I am currently on.</t>
+  </si>
+  <si>
+    <t>- Individual Item Page should request a remote weather API service using the coordinates of each place 
+- Individual Item Page should display the information about the current weather of the place via an image/icon as well as text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As follows:
+- Individual item page should make API call to the google API service.
+- Individual item page should display a google map that is zoomed in on the place with a marker of where the place is on the map
+- Users should be able to zoom in and out of the map. 
+</t>
   </si>
   <si>
     <t>- A navigation menu will be anchored at the top of every webpage along with the search bar.
@@ -1557,41 +1566,35 @@
  2. "Admin Settings" link to redirect me to the administration control panel when I am logged in as an admin.
  3. "Account Settings" link to redirect me to my account information page
  4. "Saved Pages" link to redirect me to the save pages page.
-        5. "Contact Us" link to redirect me to the contact details page.
+ 5. "Contact Us" link to redirect me to the contact details page.
  6. "Log Out" link to log me out of the website. 
 - When I'm logged out, the navigation bar will only show the logo that will redirect the user to the welcome page
 - When I'm logged in, the navigation bar will contain a search form for me to search places matching my query.</t>
   </si>
   <si>
-    <t>- The search result page displays a drop-down menu with the following sorting options:
- *Alphabetical
- *Date
-- Choosing "alphabetical" will sort the result alphabetically 
-- Choosing date will sort the result such that the places added most recently to the database will be displayed first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Individual destination/place web page should show a list of reviews.
-- Each review should show the username, comment, and rating.
-- If no reviews have been provided by users, the reviews list will be empty. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Clicking on each item (place) will redirect me to an individual item page
-- A web page will display information about a selected place including google map of the place, the place name, contact numbers, email address, departments (if it is a college), and industry type (if it is an industry) </t>
-  </si>
-  <si>
-    <t>- If the number of items in the search result exceeds a certain amount (10) there should be displayed a pagination that allows me to read through the results in multiple segments.
-- There will be buttons labelled "Prev" and "Next" which will appear next to the number so that I may click to go onto the next or previous segment of search results while seeing which page I am currently on.</t>
-  </si>
-  <si>
-    <t>- Individual Item Page should request a remote weather API service using the coordinates of each place 
-- Individual Item Page should display the information about the current weather of the place via an image/icon as well as text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As follows:
-- Individual item page should make API call to the google API service.
-- Individual item page should display a google map that is zoomed in on the place with a marker of where the place is on the map
-- Users should be able to zoom in and out of the map. 
-</t>
+    <t xml:space="preserve">The following occurs:
+- Individual item page displays a button labelled "Save Page to Profile" 
+- When "Save Page to Profile" is clicked and saves the page successfully, the button changes label to "Place Saved" 
+- The item ID will be saved to the user's database. 
+- The navigation menu bar displays a link labelled "Saved Places" 
+- Clicking on the link will redirect me to the saved places page which displays a collection of my saved places. 
+- Each saved place will be linked to its individual item page. 
+- Clicking on each saved place will redirect me to the individual item page. </t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>When the user is on the home page,  he or she is presented with a 'Sign Up' Form. The form should contain textboxes for Username, Email, First Name, Last Name, Password, Address, Phone, Postcode and a drop-down multiple choice for Account Type. Some of these fields are mandatory, hence user  must provide these informations. Once the user submits the form with all the mandatory fields filled up, a new account is created with the provided creadential and the account details are stored in the MySQL database.  AND  they will be faced with a message "You have successfully registered".</t>
+  </si>
+  <si>
+    <t>- Clicking on each item (place) will redirect me to an individual item page 
+- A web page will display information about a selected place including google map of the place, the place name, and if it is a college category item it will display the address, email and departments of the place, or industry category item then it will display the address, email and industy type of the place, else it will display the place's phone number and email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the user profile page:                                   
+- The edit account page displays a form pre-filled with my personal information; including the details I registered with and additional information that I added later. 
+- Clicking on the "update" button returns me to the account information page so that I can view the changes I have made. </t>
   </si>
 </sst>
 </file>
@@ -1863,9 +1866,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1884,11 +1884,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1902,6 +1908,12 @@
     <xf numFmtId="15" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1913,15 +1925,6 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2265,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="E39" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,48 +2288,50 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="F2" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="G2" s="41"/>
+      <c r="D2" s="33"/>
+      <c r="F2" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="36">
         <v>43029</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="32"/>
+      <c r="C6" s="36">
+        <v>43033</v>
+      </c>
+      <c r="D6" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -2376,7 +2381,9 @@
       <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2400,7 +2407,9 @@
       <c r="G10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2424,7 +2433,9 @@
       <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2448,7 +2459,9 @@
       <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -2472,7 +2485,9 @@
       <c r="G13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -2496,7 +2511,9 @@
       <c r="G14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -2520,7 +2537,9 @@
       <c r="G15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -2544,7 +2563,9 @@
       <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -2568,81 +2589,85 @@
       <c r="G17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="216" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="29"/>
+      <c r="H18" s="32" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" ht="315" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -2666,7 +2691,9 @@
       <c r="G24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="375" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -2690,7 +2717,9 @@
       <c r="G25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -2714,7 +2743,9 @@
       <c r="G26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -2738,7 +2769,9 @@
       <c r="G27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -2762,7 +2795,9 @@
       <c r="G28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2786,7 +2821,9 @@
       <c r="G29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -2810,7 +2847,9 @@
       <c r="G30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -2834,7 +2873,9 @@
       <c r="G31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2858,7 +2899,9 @@
       <c r="G32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -2882,7 +2925,9 @@
       <c r="G33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -2906,7 +2951,9 @@
       <c r="G34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -2930,7 +2977,9 @@
       <c r="G35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -2954,7 +3003,9 @@
       <c r="G36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -2978,7 +3029,9 @@
       <c r="G37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -3002,7 +3055,9 @@
       <c r="G38" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -3026,7 +3081,9 @@
       <c r="G39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
@@ -3050,7 +3107,9 @@
       <c r="G40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -3074,7 +3133,9 @@
       <c r="G41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -3093,12 +3154,14 @@
         <v>187</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -3117,12 +3180,14 @@
         <v>193</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -3141,12 +3206,14 @@
         <v>199</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -3165,16 +3232,18 @@
         <v>204</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="H45" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>207</v>
@@ -3189,15 +3258,23 @@
         <v>209</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="B18:B23"/>
     <mergeCell ref="H18:H23"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -3205,12 +3282,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="G18:G23"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="B18:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3220,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,43 +3311,43 @@
       <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="F1" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" s="41"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="34"/>
+      <c r="C3" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="35"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="36">
         <v>43029</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="33"/>
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -3284,8 +3355,10 @@
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="36">
+        <v>43033</v>
+      </c>
+      <c r="D5" s="33"/>
       <c r="E5" s="8"/>
       <c r="F5" s="15"/>
       <c r="G5" s="8"/>
@@ -3322,7 +3395,7 @@
     </row>
     <row r="8" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>211</v>
@@ -3337,108 +3410,118 @@
         <v>214</v>
       </c>
       <c r="F8" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>219</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>214</v>
       </c>
       <c r="F9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="18" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="18" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="18" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>212</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3456,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,7 +3550,7 @@
     <col min="3" max="3" width="27.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="37" style="8" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" style="23" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="14"/>
@@ -3477,48 +3560,50 @@
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="F1" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" s="41"/>
+      <c r="D1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="38"/>
+      <c r="C3" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="42">
         <v>43029</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="42">
+        <v>43033</v>
+      </c>
+      <c r="D5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3537,7 +3622,7 @@
       <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="17" t="s">
@@ -3549,243 +3634,263 @@
     </row>
     <row r="8" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="42" t="s">
-        <v>249</v>
-      </c>
       <c r="G10" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="9"/>
+        <v>243</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="G11" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>262</v>
-      </c>
       <c r="E13" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="G14" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="F15" s="42" t="s">
+      <c r="G15" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="G16" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
@@ -3924,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,7 +4040,7 @@
     <col min="3" max="3" width="20.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="45.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="48.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="8" customWidth="1"/>
   </cols>
@@ -3944,48 +4049,50 @@
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="F1" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" s="41"/>
+      <c r="D1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" s="38"/>
+      <c r="C3" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="42">
         <v>43029</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="42">
+        <v>43033</v>
+      </c>
+      <c r="D5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4004,111 +4111,119 @@
       <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B9" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D9" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="F10" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="26" t="s">
+      <c r="C11" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="28" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="12"/>
